--- a/docs/excel/TCarPart.xlsx
+++ b/docs/excel/TCarPart.xlsx
@@ -686,13 +686,13 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.8984375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="38.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.796875" style="4" customWidth="1"/>
     <col min="4" max="4" width="15.19921875" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.8984375" style="5" customWidth="1"/>

--- a/docs/excel/TCarPart.xlsx
+++ b/docs/excel/TCarPart.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>Id</t>
   </si>
@@ -116,6 +116,9 @@
     </r>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
   <si>
@@ -165,51 +168,6 @@
   </si>
   <si>
     <t>停靠时间增加值</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
   </si>
   <si>
     <t>TableName: "TCarPart" Package: "table" CSClassHeader: "[System.Serializable]"</t>
@@ -268,10 +226,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -286,25 +244,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -323,7 +280,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,23 +301,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,9 +316,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -387,6 +343,22 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -414,23 +386,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,6 +421,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -470,24 +440,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,7 +457,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,7 +481,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,6 +529,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -560,30 +542,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,6 +571,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -623,18 +593,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -642,15 +600,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -669,15 +618,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -689,6 +629,33 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,15 +692,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -747,155 +705,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -927,10 +885,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1315,10 +1269,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44:D54"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1400,11 +1354,11 @@
       <c r="C2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>17</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>17</v>
@@ -1412,20 +1366,20 @@
       <c r="G2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>17</v>
+      <c r="L2" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>17</v>
@@ -1433,16 +1387,16 @@
       <c r="N2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>17</v>
+      <c r="O2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="5"/>
@@ -1450,52 +1404,52 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2019,6 +1973,9 @@
       <c r="N15" s="11">
         <v>0</v>
       </c>
+      <c r="O15" s="11">
+        <v>0</v>
+      </c>
       <c r="P15" s="12">
         <v>0</v>
       </c>
@@ -2064,6 +2021,9 @@
       <c r="N16" s="11">
         <v>0</v>
       </c>
+      <c r="O16" s="11">
+        <v>0</v>
+      </c>
       <c r="P16">
         <v>0</v>
       </c>
@@ -2109,6 +2069,9 @@
       <c r="N17" s="11">
         <v>0</v>
       </c>
+      <c r="O17" s="11">
+        <v>0</v>
+      </c>
       <c r="P17" s="12">
         <v>0</v>
       </c>
@@ -2154,6 +2117,9 @@
       <c r="N18" s="11">
         <v>0</v>
       </c>
+      <c r="O18" s="11">
+        <v>0</v>
+      </c>
       <c r="P18">
         <v>0</v>
       </c>
@@ -2199,6 +2165,9 @@
       <c r="N19" s="11">
         <v>0</v>
       </c>
+      <c r="O19" s="11">
+        <v>0</v>
+      </c>
       <c r="P19" s="12">
         <v>0</v>
       </c>
@@ -2244,6 +2213,9 @@
       <c r="N20" s="11">
         <v>0</v>
       </c>
+      <c r="O20" s="11">
+        <v>0</v>
+      </c>
       <c r="P20">
         <v>0</v>
       </c>
@@ -2289,6 +2261,9 @@
       <c r="N21" s="11">
         <v>0</v>
       </c>
+      <c r="O21" s="11">
+        <v>0</v>
+      </c>
       <c r="P21" s="12">
         <v>0</v>
       </c>
@@ -2334,6 +2309,9 @@
       <c r="N22" s="11">
         <v>0</v>
       </c>
+      <c r="O22" s="11">
+        <v>0</v>
+      </c>
       <c r="P22">
         <v>0</v>
       </c>
@@ -2379,6 +2357,9 @@
       <c r="N23" s="11">
         <v>0</v>
       </c>
+      <c r="O23" s="11">
+        <v>0</v>
+      </c>
       <c r="P23" s="12">
         <v>0</v>
       </c>
@@ -2424,6 +2405,9 @@
       <c r="N24" s="11">
         <v>0</v>
       </c>
+      <c r="O24" s="11">
+        <v>0</v>
+      </c>
       <c r="P24">
         <v>0</v>
       </c>
@@ -2439,8 +2423,8 @@
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>35</v>
+      <c r="E25" s="4">
+        <v>0</v>
       </c>
       <c r="F25" s="4">
         <v>10</v>
@@ -2468,6 +2452,9 @@
       </c>
       <c r="N25">
         <v>2000</v>
+      </c>
+      <c r="O25" s="11">
+        <v>0</v>
       </c>
       <c r="P25" s="12">
         <v>0</v>
@@ -2484,7 +2471,7 @@
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="4">
         <v>0</v>
       </c>
       <c r="F26" s="4">
@@ -2513,6 +2500,9 @@
       </c>
       <c r="N26">
         <v>2500</v>
+      </c>
+      <c r="O26" s="11">
+        <v>0</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -2529,8 +2519,8 @@
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>36</v>
+      <c r="E27" s="4">
+        <v>0</v>
       </c>
       <c r="F27" s="4">
         <v>20</v>
@@ -2558,6 +2548,9 @@
       </c>
       <c r="N27">
         <v>3000</v>
+      </c>
+      <c r="O27" s="11">
+        <v>0</v>
       </c>
       <c r="P27" s="12">
         <v>0</v>
@@ -2574,8 +2567,8 @@
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28" s="14">
-        <v>1</v>
+      <c r="E28" s="4">
+        <v>0</v>
       </c>
       <c r="F28" s="4">
         <v>25</v>
@@ -2603,6 +2596,9 @@
       </c>
       <c r="N28">
         <v>3500</v>
+      </c>
+      <c r="O28" s="11">
+        <v>0</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -2619,8 +2615,8 @@
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>37</v>
+      <c r="E29" s="4">
+        <v>0</v>
       </c>
       <c r="F29" s="4">
         <v>30</v>
@@ -2648,6 +2644,9 @@
       </c>
       <c r="N29">
         <v>4000</v>
+      </c>
+      <c r="O29" s="11">
+        <v>0</v>
       </c>
       <c r="P29" s="12">
         <v>0</v>
@@ -2663,8 +2662,8 @@
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30" s="14">
-        <v>2</v>
+      <c r="E30" s="4">
+        <v>0</v>
       </c>
       <c r="F30" s="4">
         <v>35</v>
@@ -2692,6 +2691,9 @@
       </c>
       <c r="N30">
         <v>4500</v>
+      </c>
+      <c r="O30" s="11">
+        <v>0</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2707,8 +2709,8 @@
       <c r="D31">
         <v>0</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>38</v>
+      <c r="E31" s="4">
+        <v>0</v>
       </c>
       <c r="F31" s="4">
         <v>40</v>
@@ -2736,6 +2738,9 @@
       </c>
       <c r="N31">
         <v>5000</v>
+      </c>
+      <c r="O31" s="11">
+        <v>0</v>
       </c>
       <c r="P31" s="12">
         <v>0</v>
@@ -2748,12 +2753,11 @@
       <c r="B32" s="10">
         <v>3</v>
       </c>
-      <c r="C32" s="4"/>
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" s="14">
-        <v>3</v>
+      <c r="E32" s="4">
+        <v>0</v>
       </c>
       <c r="F32" s="4">
         <v>45</v>
@@ -2781,6 +2785,9 @@
       </c>
       <c r="N32">
         <v>5500</v>
+      </c>
+      <c r="O32" s="11">
+        <v>0</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -2796,8 +2803,8 @@
       <c r="D33">
         <v>0</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>39</v>
+      <c r="E33" s="4">
+        <v>0</v>
       </c>
       <c r="F33" s="4">
         <v>50</v>
@@ -2825,6 +2832,9 @@
       </c>
       <c r="N33">
         <v>6000</v>
+      </c>
+      <c r="O33" s="11">
+        <v>0</v>
       </c>
       <c r="P33" s="12">
         <v>0</v>
@@ -2840,8 +2850,8 @@
       <c r="D34">
         <v>0</v>
       </c>
-      <c r="E34" s="14">
-        <v>4</v>
+      <c r="E34" s="4">
+        <v>0</v>
       </c>
       <c r="F34" s="4">
         <v>55</v>
@@ -2869,6 +2879,9 @@
       </c>
       <c r="N34">
         <v>6500</v>
+      </c>
+      <c r="O34" s="11">
+        <v>0</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -2884,8 +2897,8 @@
       <c r="D35" s="4">
         <v>50</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>40</v>
+      <c r="E35" s="4">
+        <v>0</v>
       </c>
       <c r="F35" s="4">
         <v>0</v>
@@ -2911,7 +2924,10 @@
       <c r="M35">
         <v>0</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="11">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11">
         <v>0</v>
       </c>
       <c r="P35" s="12">
@@ -2928,8 +2944,8 @@
       <c r="D36" s="4">
         <v>70</v>
       </c>
-      <c r="E36" s="14">
-        <v>5</v>
+      <c r="E36" s="4">
+        <v>0</v>
       </c>
       <c r="F36" s="4">
         <v>0</v>
@@ -2955,7 +2971,10 @@
       <c r="M36">
         <v>0</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="11">
+        <v>0</v>
+      </c>
+      <c r="O36" s="11">
         <v>0</v>
       </c>
       <c r="P36">
@@ -2972,8 +2991,8 @@
       <c r="D37" s="4">
         <v>90</v>
       </c>
-      <c r="E37" s="13" t="s">
-        <v>41</v>
+      <c r="E37" s="4">
+        <v>0</v>
       </c>
       <c r="F37" s="4">
         <v>0</v>
@@ -2999,8 +3018,11 @@
       <c r="M37">
         <v>0</v>
       </c>
-      <c r="N37">
-        <v>1</v>
+      <c r="N37" s="11">
+        <v>0</v>
+      </c>
+      <c r="O37" s="11">
+        <v>0</v>
       </c>
       <c r="P37" s="12">
         <v>0</v>
@@ -3016,8 +3038,8 @@
       <c r="D38" s="4">
         <v>110</v>
       </c>
-      <c r="E38" s="14">
-        <v>6</v>
+      <c r="E38" s="4">
+        <v>0</v>
       </c>
       <c r="F38" s="4">
         <v>0</v>
@@ -3043,8 +3065,11 @@
       <c r="M38">
         <v>0</v>
       </c>
-      <c r="N38">
-        <v>2</v>
+      <c r="N38" s="11">
+        <v>0</v>
+      </c>
+      <c r="O38" s="11">
+        <v>0</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -3060,8 +3085,8 @@
       <c r="D39" s="4">
         <v>130</v>
       </c>
-      <c r="E39" s="13" t="s">
-        <v>42</v>
+      <c r="E39" s="4">
+        <v>0</v>
       </c>
       <c r="F39" s="4">
         <v>0</v>
@@ -3087,8 +3112,11 @@
       <c r="M39">
         <v>0</v>
       </c>
-      <c r="N39">
-        <v>3</v>
+      <c r="N39" s="11">
+        <v>0</v>
+      </c>
+      <c r="O39" s="11">
+        <v>0</v>
       </c>
       <c r="P39" s="12">
         <v>0</v>
@@ -3104,8 +3132,8 @@
       <c r="D40" s="4">
         <v>150</v>
       </c>
-      <c r="E40" s="14">
-        <v>7</v>
+      <c r="E40" s="4">
+        <v>0</v>
       </c>
       <c r="F40" s="4">
         <v>0</v>
@@ -3131,8 +3159,11 @@
       <c r="M40">
         <v>0</v>
       </c>
-      <c r="N40">
-        <v>4</v>
+      <c r="N40" s="11">
+        <v>0</v>
+      </c>
+      <c r="O40" s="11">
+        <v>0</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -3148,8 +3179,8 @@
       <c r="D41" s="4">
         <v>170</v>
       </c>
-      <c r="E41" s="13" t="s">
-        <v>43</v>
+      <c r="E41" s="4">
+        <v>0</v>
       </c>
       <c r="F41" s="4">
         <v>0</v>
@@ -3175,8 +3206,11 @@
       <c r="M41">
         <v>0</v>
       </c>
-      <c r="N41">
-        <v>5</v>
+      <c r="N41" s="11">
+        <v>0</v>
+      </c>
+      <c r="O41" s="11">
+        <v>0</v>
       </c>
       <c r="P41" s="12">
         <v>0</v>
@@ -3192,8 +3226,8 @@
       <c r="D42" s="4">
         <v>190</v>
       </c>
-      <c r="E42" s="14">
-        <v>8</v>
+      <c r="E42" s="4">
+        <v>0</v>
       </c>
       <c r="F42" s="4">
         <v>0</v>
@@ -3219,8 +3253,11 @@
       <c r="M42">
         <v>0</v>
       </c>
-      <c r="N42">
-        <v>6</v>
+      <c r="N42" s="11">
+        <v>0</v>
+      </c>
+      <c r="O42" s="11">
+        <v>0</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -3236,8 +3273,8 @@
       <c r="D43" s="4">
         <v>210</v>
       </c>
-      <c r="E43" s="13" t="s">
-        <v>44</v>
+      <c r="E43" s="4">
+        <v>0</v>
       </c>
       <c r="F43" s="4">
         <v>0</v>
@@ -3263,8 +3300,11 @@
       <c r="M43">
         <v>0</v>
       </c>
-      <c r="N43">
-        <v>7</v>
+      <c r="N43" s="11">
+        <v>0</v>
+      </c>
+      <c r="O43" s="11">
+        <v>0</v>
       </c>
       <c r="P43" s="12">
         <v>0</v>
@@ -3280,8 +3320,8 @@
       <c r="D44" s="4">
         <v>0</v>
       </c>
-      <c r="E44" s="14">
-        <v>9</v>
+      <c r="E44" s="4">
+        <v>0</v>
       </c>
       <c r="F44" s="4">
         <v>0</v>
@@ -3307,8 +3347,11 @@
       <c r="M44">
         <v>0</v>
       </c>
-      <c r="N44">
-        <v>8</v>
+      <c r="N44" s="11">
+        <v>0</v>
+      </c>
+      <c r="O44" s="11">
+        <v>0</v>
       </c>
       <c r="P44">
         <v>0</v>
@@ -3324,8 +3367,8 @@
       <c r="D45" s="4">
         <v>0</v>
       </c>
-      <c r="E45" s="13" t="s">
-        <v>45</v>
+      <c r="E45" s="4">
+        <v>0</v>
       </c>
       <c r="F45" s="4">
         <v>0</v>
@@ -3351,8 +3394,11 @@
       <c r="M45">
         <v>0</v>
       </c>
-      <c r="N45">
-        <v>9</v>
+      <c r="N45" s="11">
+        <v>0</v>
+      </c>
+      <c r="O45" s="11">
+        <v>0</v>
       </c>
       <c r="P45">
         <v>10</v>
@@ -3368,8 +3414,8 @@
       <c r="D46" s="4">
         <v>0</v>
       </c>
-      <c r="E46" s="14">
-        <v>10</v>
+      <c r="E46" s="4">
+        <v>0</v>
       </c>
       <c r="F46" s="4">
         <v>0</v>
@@ -3395,8 +3441,11 @@
       <c r="M46">
         <v>0</v>
       </c>
-      <c r="N46">
-        <v>10</v>
+      <c r="N46" s="11">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11">
+        <v>0</v>
       </c>
       <c r="P46">
         <v>15</v>
@@ -3412,8 +3461,8 @@
       <c r="D47" s="4">
         <v>0</v>
       </c>
-      <c r="E47" s="13" t="s">
-        <v>46</v>
+      <c r="E47" s="4">
+        <v>0</v>
       </c>
       <c r="F47" s="4">
         <v>0</v>
@@ -3439,8 +3488,11 @@
       <c r="M47">
         <v>0</v>
       </c>
-      <c r="N47">
-        <v>11</v>
+      <c r="N47" s="11">
+        <v>0</v>
+      </c>
+      <c r="O47" s="11">
+        <v>0</v>
       </c>
       <c r="P47">
         <v>20</v>
@@ -3456,8 +3508,8 @@
       <c r="D48" s="4">
         <v>0</v>
       </c>
-      <c r="E48" s="14">
-        <v>11</v>
+      <c r="E48" s="4">
+        <v>0</v>
       </c>
       <c r="F48" s="4">
         <v>0</v>
@@ -3483,8 +3535,11 @@
       <c r="M48">
         <v>0</v>
       </c>
-      <c r="N48">
-        <v>12</v>
+      <c r="N48" s="11">
+        <v>0</v>
+      </c>
+      <c r="O48" s="11">
+        <v>0</v>
       </c>
       <c r="P48">
         <v>25</v>
@@ -3500,8 +3555,8 @@
       <c r="D49" s="4">
         <v>0</v>
       </c>
-      <c r="E49" s="13" t="s">
-        <v>47</v>
+      <c r="E49" s="4">
+        <v>0</v>
       </c>
       <c r="F49" s="4">
         <v>0</v>
@@ -3527,8 +3582,11 @@
       <c r="M49">
         <v>0</v>
       </c>
-      <c r="N49">
-        <v>13</v>
+      <c r="N49" s="11">
+        <v>0</v>
+      </c>
+      <c r="O49" s="11">
+        <v>0</v>
       </c>
       <c r="P49">
         <v>30</v>
@@ -3544,8 +3602,8 @@
       <c r="D50" s="4">
         <v>0</v>
       </c>
-      <c r="E50" s="14">
-        <v>12</v>
+      <c r="E50" s="4">
+        <v>0</v>
       </c>
       <c r="F50" s="4">
         <v>0</v>
@@ -3571,8 +3629,11 @@
       <c r="M50">
         <v>0</v>
       </c>
-      <c r="N50">
-        <v>14</v>
+      <c r="N50" s="11">
+        <v>0</v>
+      </c>
+      <c r="O50" s="11">
+        <v>0</v>
       </c>
       <c r="P50">
         <v>35</v>
@@ -3588,8 +3649,8 @@
       <c r="D51" s="4">
         <v>0</v>
       </c>
-      <c r="E51" s="13" t="s">
-        <v>48</v>
+      <c r="E51" s="4">
+        <v>0</v>
       </c>
       <c r="F51" s="4">
         <v>0</v>
@@ -3615,8 +3676,11 @@
       <c r="M51">
         <v>0</v>
       </c>
-      <c r="N51">
-        <v>15</v>
+      <c r="N51" s="11">
+        <v>0</v>
+      </c>
+      <c r="O51" s="11">
+        <v>0</v>
       </c>
       <c r="P51">
         <v>40</v>
@@ -3632,8 +3696,8 @@
       <c r="D52" s="4">
         <v>0</v>
       </c>
-      <c r="E52" s="14">
-        <v>13</v>
+      <c r="E52" s="4">
+        <v>0</v>
       </c>
       <c r="F52" s="4">
         <v>0</v>
@@ -3659,8 +3723,11 @@
       <c r="M52">
         <v>0</v>
       </c>
-      <c r="N52">
-        <v>16</v>
+      <c r="N52" s="11">
+        <v>0</v>
+      </c>
+      <c r="O52" s="11">
+        <v>0</v>
       </c>
       <c r="P52">
         <v>45</v>
@@ -3676,8 +3743,8 @@
       <c r="D53" s="4">
         <v>0</v>
       </c>
-      <c r="E53" s="13" t="s">
-        <v>49</v>
+      <c r="E53" s="4">
+        <v>0</v>
       </c>
       <c r="F53" s="4">
         <v>0</v>
@@ -3703,8 +3770,11 @@
       <c r="M53">
         <v>0</v>
       </c>
-      <c r="N53">
-        <v>17</v>
+      <c r="N53" s="11">
+        <v>0</v>
+      </c>
+      <c r="O53" s="11">
+        <v>0</v>
       </c>
       <c r="P53">
         <v>50</v>
@@ -3720,8 +3790,8 @@
       <c r="D54" s="4">
         <v>0</v>
       </c>
-      <c r="E54" s="14">
-        <v>14</v>
+      <c r="E54" s="4">
+        <v>0</v>
       </c>
       <c r="F54" s="4">
         <v>0</v>
@@ -3747,12 +3817,21 @@
       <c r="M54">
         <v>0</v>
       </c>
-      <c r="N54">
-        <v>18</v>
+      <c r="N54" s="11">
+        <v>0</v>
+      </c>
+      <c r="O54" s="11">
+        <v>0</v>
       </c>
       <c r="P54">
         <v>55</v>
       </c>
+    </row>
+    <row r="55" spans="14:14">
+      <c r="N55" s="11"/>
+    </row>
+    <row r="56" spans="14:14">
+      <c r="N56" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3782,59 +3861,59 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/TCarPart.xlsx
+++ b/docs/excel/TCarPart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13650" tabRatio="204"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TCarPart" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>Id</t>
   </si>
@@ -116,6 +116,9 @@
     </r>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
   <si>
@@ -165,51 +168,6 @@
   </si>
   <si>
     <t>停靠时间增加值</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
   </si>
   <si>
     <t>TableName: "TCarPart" Package: "table" CSClassHeader: "[System.Serializable]"</t>
@@ -268,9 +226,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -288,15 +246,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -309,35 +267,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,14 +298,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -368,23 +305,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,16 +327,53 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,14 +388,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,6 +409,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -463,73 +451,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,61 +487,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,13 +505,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,11 +603,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,73 +695,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,155 +705,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -927,10 +885,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1315,10 +1269,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44:D54"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1404,7 +1358,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>17</v>
@@ -1413,7 +1367,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>17</v>
@@ -1425,7 +1379,7 @@
         <v>16</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>17</v>
@@ -1434,7 +1388,7 @@
         <v>17</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>17</v>
@@ -1442,7 +1396,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="5"/>
@@ -1450,52 +1404,52 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2019,6 +1973,9 @@
       <c r="N15" s="11">
         <v>0</v>
       </c>
+      <c r="O15" s="12">
+        <v>0</v>
+      </c>
       <c r="P15" s="12">
         <v>0</v>
       </c>
@@ -2064,6 +2021,9 @@
       <c r="N16" s="11">
         <v>0</v>
       </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
       <c r="P16">
         <v>0</v>
       </c>
@@ -2109,6 +2069,9 @@
       <c r="N17" s="11">
         <v>0</v>
       </c>
+      <c r="O17" s="12">
+        <v>0</v>
+      </c>
       <c r="P17" s="12">
         <v>0</v>
       </c>
@@ -2154,6 +2117,9 @@
       <c r="N18" s="11">
         <v>0</v>
       </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
       <c r="P18">
         <v>0</v>
       </c>
@@ -2199,6 +2165,9 @@
       <c r="N19" s="11">
         <v>0</v>
       </c>
+      <c r="O19" s="12">
+        <v>0</v>
+      </c>
       <c r="P19" s="12">
         <v>0</v>
       </c>
@@ -2244,6 +2213,9 @@
       <c r="N20" s="11">
         <v>0</v>
       </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
       <c r="P20">
         <v>0</v>
       </c>
@@ -2289,6 +2261,9 @@
       <c r="N21" s="11">
         <v>0</v>
       </c>
+      <c r="O21" s="12">
+        <v>0</v>
+      </c>
       <c r="P21" s="12">
         <v>0</v>
       </c>
@@ -2334,6 +2309,9 @@
       <c r="N22" s="11">
         <v>0</v>
       </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
       <c r="P22">
         <v>0</v>
       </c>
@@ -2379,6 +2357,9 @@
       <c r="N23" s="11">
         <v>0</v>
       </c>
+      <c r="O23" s="12">
+        <v>0</v>
+      </c>
       <c r="P23" s="12">
         <v>0</v>
       </c>
@@ -2424,6 +2405,9 @@
       <c r="N24" s="11">
         <v>0</v>
       </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
       <c r="P24">
         <v>0</v>
       </c>
@@ -2439,8 +2423,8 @@
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>35</v>
+      <c r="E25" s="6">
+        <v>0</v>
       </c>
       <c r="F25" s="4">
         <v>10</v>
@@ -2468,6 +2452,9 @@
       </c>
       <c r="N25">
         <v>2000</v>
+      </c>
+      <c r="O25" s="12">
+        <v>0</v>
       </c>
       <c r="P25" s="12">
         <v>0</v>
@@ -2484,7 +2471,7 @@
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="6">
         <v>0</v>
       </c>
       <c r="F26" s="4">
@@ -2513,6 +2500,9 @@
       </c>
       <c r="N26">
         <v>2500</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -2529,8 +2519,8 @@
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>36</v>
+      <c r="E27" s="6">
+        <v>0</v>
       </c>
       <c r="F27" s="4">
         <v>20</v>
@@ -2558,6 +2548,9 @@
       </c>
       <c r="N27">
         <v>3000</v>
+      </c>
+      <c r="O27" s="12">
+        <v>0</v>
       </c>
       <c r="P27" s="12">
         <v>0</v>
@@ -2574,8 +2567,8 @@
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28" s="14">
-        <v>1</v>
+      <c r="E28" s="6">
+        <v>0</v>
       </c>
       <c r="F28" s="4">
         <v>25</v>
@@ -2603,6 +2596,9 @@
       </c>
       <c r="N28">
         <v>3500</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -2619,8 +2615,8 @@
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>37</v>
+      <c r="E29" s="6">
+        <v>0</v>
       </c>
       <c r="F29" s="4">
         <v>30</v>
@@ -2648,6 +2644,9 @@
       </c>
       <c r="N29">
         <v>4000</v>
+      </c>
+      <c r="O29" s="12">
+        <v>0</v>
       </c>
       <c r="P29" s="12">
         <v>0</v>
@@ -2663,8 +2662,8 @@
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30" s="14">
-        <v>2</v>
+      <c r="E30" s="6">
+        <v>0</v>
       </c>
       <c r="F30" s="4">
         <v>35</v>
@@ -2692,6 +2691,9 @@
       </c>
       <c r="N30">
         <v>4500</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2707,8 +2709,8 @@
       <c r="D31">
         <v>0</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>38</v>
+      <c r="E31" s="6">
+        <v>0</v>
       </c>
       <c r="F31" s="4">
         <v>40</v>
@@ -2736,6 +2738,9 @@
       </c>
       <c r="N31">
         <v>5000</v>
+      </c>
+      <c r="O31" s="12">
+        <v>0</v>
       </c>
       <c r="P31" s="12">
         <v>0</v>
@@ -2748,12 +2753,11 @@
       <c r="B32" s="10">
         <v>3</v>
       </c>
-      <c r="C32" s="4"/>
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" s="14">
-        <v>3</v>
+      <c r="E32" s="6">
+        <v>0</v>
       </c>
       <c r="F32" s="4">
         <v>45</v>
@@ -2781,6 +2785,9 @@
       </c>
       <c r="N32">
         <v>5500</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -2796,8 +2803,8 @@
       <c r="D33">
         <v>0</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>39</v>
+      <c r="E33" s="6">
+        <v>0</v>
       </c>
       <c r="F33" s="4">
         <v>50</v>
@@ -2825,6 +2832,9 @@
       </c>
       <c r="N33">
         <v>6000</v>
+      </c>
+      <c r="O33" s="12">
+        <v>0</v>
       </c>
       <c r="P33" s="12">
         <v>0</v>
@@ -2840,8 +2850,8 @@
       <c r="D34">
         <v>0</v>
       </c>
-      <c r="E34" s="14">
-        <v>4</v>
+      <c r="E34" s="6">
+        <v>0</v>
       </c>
       <c r="F34" s="4">
         <v>55</v>
@@ -2869,6 +2879,9 @@
       </c>
       <c r="N34">
         <v>6500</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -2884,8 +2897,8 @@
       <c r="D35" s="4">
         <v>50</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>40</v>
+      <c r="E35" s="6">
+        <v>0</v>
       </c>
       <c r="F35" s="4">
         <v>0</v>
@@ -2911,7 +2924,10 @@
       <c r="M35">
         <v>0</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="12">
+        <v>0</v>
+      </c>
+      <c r="O35" s="12">
         <v>0</v>
       </c>
       <c r="P35" s="12">
@@ -2928,8 +2944,8 @@
       <c r="D36" s="4">
         <v>70</v>
       </c>
-      <c r="E36" s="14">
-        <v>5</v>
+      <c r="E36" s="6">
+        <v>0</v>
       </c>
       <c r="F36" s="4">
         <v>0</v>
@@ -2956,6 +2972,9 @@
         <v>0</v>
       </c>
       <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
         <v>0</v>
       </c>
       <c r="P36">
@@ -2972,8 +2991,8 @@
       <c r="D37" s="4">
         <v>90</v>
       </c>
-      <c r="E37" s="13" t="s">
-        <v>41</v>
+      <c r="E37" s="6">
+        <v>0</v>
       </c>
       <c r="F37" s="4">
         <v>0</v>
@@ -2999,8 +3018,11 @@
       <c r="M37">
         <v>0</v>
       </c>
-      <c r="N37">
-        <v>1</v>
+      <c r="N37" s="12">
+        <v>0</v>
+      </c>
+      <c r="O37" s="12">
+        <v>0</v>
       </c>
       <c r="P37" s="12">
         <v>0</v>
@@ -3016,8 +3038,8 @@
       <c r="D38" s="4">
         <v>110</v>
       </c>
-      <c r="E38" s="14">
-        <v>6</v>
+      <c r="E38" s="6">
+        <v>0</v>
       </c>
       <c r="F38" s="4">
         <v>0</v>
@@ -3044,7 +3066,10 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -3060,8 +3085,8 @@
       <c r="D39" s="4">
         <v>130</v>
       </c>
-      <c r="E39" s="13" t="s">
-        <v>42</v>
+      <c r="E39" s="6">
+        <v>0</v>
       </c>
       <c r="F39" s="4">
         <v>0</v>
@@ -3087,8 +3112,11 @@
       <c r="M39">
         <v>0</v>
       </c>
-      <c r="N39">
-        <v>3</v>
+      <c r="N39" s="12">
+        <v>0</v>
+      </c>
+      <c r="O39" s="12">
+        <v>0</v>
       </c>
       <c r="P39" s="12">
         <v>0</v>
@@ -3104,8 +3132,8 @@
       <c r="D40" s="4">
         <v>150</v>
       </c>
-      <c r="E40" s="14">
-        <v>7</v>
+      <c r="E40" s="6">
+        <v>0</v>
       </c>
       <c r="F40" s="4">
         <v>0</v>
@@ -3132,7 +3160,10 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -3148,8 +3179,8 @@
       <c r="D41" s="4">
         <v>170</v>
       </c>
-      <c r="E41" s="13" t="s">
-        <v>43</v>
+      <c r="E41" s="6">
+        <v>0</v>
       </c>
       <c r="F41" s="4">
         <v>0</v>
@@ -3175,8 +3206,11 @@
       <c r="M41">
         <v>0</v>
       </c>
-      <c r="N41">
-        <v>5</v>
+      <c r="N41" s="12">
+        <v>0</v>
+      </c>
+      <c r="O41" s="12">
+        <v>0</v>
       </c>
       <c r="P41" s="12">
         <v>0</v>
@@ -3192,8 +3226,8 @@
       <c r="D42" s="4">
         <v>190</v>
       </c>
-      <c r="E42" s="14">
-        <v>8</v>
+      <c r="E42" s="6">
+        <v>0</v>
       </c>
       <c r="F42" s="4">
         <v>0</v>
@@ -3220,7 +3254,10 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -3236,8 +3273,8 @@
       <c r="D43" s="4">
         <v>210</v>
       </c>
-      <c r="E43" s="13" t="s">
-        <v>44</v>
+      <c r="E43" s="6">
+        <v>0</v>
       </c>
       <c r="F43" s="4">
         <v>0</v>
@@ -3263,8 +3300,11 @@
       <c r="M43">
         <v>0</v>
       </c>
-      <c r="N43">
-        <v>7</v>
+      <c r="N43" s="12">
+        <v>0</v>
+      </c>
+      <c r="O43" s="12">
+        <v>0</v>
       </c>
       <c r="P43" s="12">
         <v>0</v>
@@ -3280,8 +3320,8 @@
       <c r="D44" s="4">
         <v>0</v>
       </c>
-      <c r="E44" s="14">
-        <v>9</v>
+      <c r="E44" s="6">
+        <v>0</v>
       </c>
       <c r="F44" s="4">
         <v>0</v>
@@ -3308,7 +3348,10 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
       </c>
       <c r="P44">
         <v>0</v>
@@ -3324,8 +3367,8 @@
       <c r="D45" s="4">
         <v>0</v>
       </c>
-      <c r="E45" s="13" t="s">
-        <v>45</v>
+      <c r="E45" s="6">
+        <v>0</v>
       </c>
       <c r="F45" s="4">
         <v>0</v>
@@ -3351,8 +3394,11 @@
       <c r="M45">
         <v>0</v>
       </c>
-      <c r="N45">
-        <v>9</v>
+      <c r="N45" s="12">
+        <v>0</v>
+      </c>
+      <c r="O45" s="12">
+        <v>0</v>
       </c>
       <c r="P45">
         <v>10</v>
@@ -3368,8 +3414,8 @@
       <c r="D46" s="4">
         <v>0</v>
       </c>
-      <c r="E46" s="14">
-        <v>10</v>
+      <c r="E46" s="6">
+        <v>0</v>
       </c>
       <c r="F46" s="4">
         <v>0</v>
@@ -3396,7 +3442,10 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
       </c>
       <c r="P46">
         <v>15</v>
@@ -3412,8 +3461,8 @@
       <c r="D47" s="4">
         <v>0</v>
       </c>
-      <c r="E47" s="13" t="s">
-        <v>46</v>
+      <c r="E47" s="6">
+        <v>0</v>
       </c>
       <c r="F47" s="4">
         <v>0</v>
@@ -3439,8 +3488,11 @@
       <c r="M47">
         <v>0</v>
       </c>
-      <c r="N47">
-        <v>11</v>
+      <c r="N47" s="12">
+        <v>0</v>
+      </c>
+      <c r="O47" s="12">
+        <v>0</v>
       </c>
       <c r="P47">
         <v>20</v>
@@ -3456,8 +3508,8 @@
       <c r="D48" s="4">
         <v>0</v>
       </c>
-      <c r="E48" s="14">
-        <v>11</v>
+      <c r="E48" s="6">
+        <v>0</v>
       </c>
       <c r="F48" s="4">
         <v>0</v>
@@ -3484,7 +3536,10 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
       </c>
       <c r="P48">
         <v>25</v>
@@ -3500,8 +3555,8 @@
       <c r="D49" s="4">
         <v>0</v>
       </c>
-      <c r="E49" s="13" t="s">
-        <v>47</v>
+      <c r="E49" s="6">
+        <v>0</v>
       </c>
       <c r="F49" s="4">
         <v>0</v>
@@ -3527,8 +3582,11 @@
       <c r="M49">
         <v>0</v>
       </c>
-      <c r="N49">
-        <v>13</v>
+      <c r="N49" s="12">
+        <v>0</v>
+      </c>
+      <c r="O49" s="12">
+        <v>0</v>
       </c>
       <c r="P49">
         <v>30</v>
@@ -3544,8 +3602,8 @@
       <c r="D50" s="4">
         <v>0</v>
       </c>
-      <c r="E50" s="14">
-        <v>12</v>
+      <c r="E50" s="6">
+        <v>0</v>
       </c>
       <c r="F50" s="4">
         <v>0</v>
@@ -3572,7 +3630,10 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
       </c>
       <c r="P50">
         <v>35</v>
@@ -3588,8 +3649,8 @@
       <c r="D51" s="4">
         <v>0</v>
       </c>
-      <c r="E51" s="13" t="s">
-        <v>48</v>
+      <c r="E51" s="6">
+        <v>0</v>
       </c>
       <c r="F51" s="4">
         <v>0</v>
@@ -3615,8 +3676,11 @@
       <c r="M51">
         <v>0</v>
       </c>
-      <c r="N51">
-        <v>15</v>
+      <c r="N51" s="12">
+        <v>0</v>
+      </c>
+      <c r="O51" s="12">
+        <v>0</v>
       </c>
       <c r="P51">
         <v>40</v>
@@ -3632,8 +3696,8 @@
       <c r="D52" s="4">
         <v>0</v>
       </c>
-      <c r="E52" s="14">
-        <v>13</v>
+      <c r="E52" s="6">
+        <v>0</v>
       </c>
       <c r="F52" s="4">
         <v>0</v>
@@ -3660,7 +3724,10 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
       </c>
       <c r="P52">
         <v>45</v>
@@ -3676,8 +3743,8 @@
       <c r="D53" s="4">
         <v>0</v>
       </c>
-      <c r="E53" s="13" t="s">
-        <v>49</v>
+      <c r="E53" s="6">
+        <v>0</v>
       </c>
       <c r="F53" s="4">
         <v>0</v>
@@ -3703,8 +3770,11 @@
       <c r="M53">
         <v>0</v>
       </c>
-      <c r="N53">
-        <v>17</v>
+      <c r="N53" s="12">
+        <v>0</v>
+      </c>
+      <c r="O53" s="12">
+        <v>0</v>
       </c>
       <c r="P53">
         <v>50</v>
@@ -3720,8 +3790,8 @@
       <c r="D54" s="4">
         <v>0</v>
       </c>
-      <c r="E54" s="14">
-        <v>14</v>
+      <c r="E54" s="6">
+        <v>0</v>
       </c>
       <c r="F54" s="4">
         <v>0</v>
@@ -3748,11 +3818,54 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
       </c>
       <c r="P54">
         <v>55</v>
       </c>
+    </row>
+    <row r="55" spans="14:15">
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+    </row>
+    <row r="57" spans="14:15">
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+    </row>
+    <row r="59" spans="14:15">
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+    </row>
+    <row r="61" spans="14:15">
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+    </row>
+    <row r="63" spans="14:15">
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+    </row>
+    <row r="65" spans="14:15">
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+    </row>
+    <row r="67" spans="14:15">
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+    </row>
+    <row r="69" spans="14:15">
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
+    </row>
+    <row r="71" spans="14:15">
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+    </row>
+    <row r="73" spans="14:15">
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3782,59 +3895,59 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/TCarPart.xlsx
+++ b/docs/excel/TCarPart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="204"/>
+    <workbookView windowWidth="28695" windowHeight="13650" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TCarPart" sheetId="1" r:id="rId1"/>
@@ -227,9 +227,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1271,8 +1271,8 @@
   <sheetPr/>
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1370,7 +1370,7 @@
         <v>18</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>16</v>
@@ -1391,7 +1391,7 @@
         <v>18</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:13">

--- a/docs/excel/TCarPart.xlsx
+++ b/docs/excel/TCarPart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13650" tabRatio="204"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TCarPart" sheetId="1" r:id="rId1"/>
@@ -226,10 +226,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -244,30 +244,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,9 +257,60 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,23 +324,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,7 +341,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,62 +387,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -409,13 +409,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,121 +463,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,6 +487,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -571,25 +511,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,6 +600,62 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -621,48 +677,16 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -676,177 +700,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1271,8 +1271,8 @@
   <sheetPr/>
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K5" s="11">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="12">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K7" s="11">
         <v>0</v>
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="12">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K9" s="11">
         <v>0</v>
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="12">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K11" s="11">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K13" s="11">
         <v>0</v>
@@ -1910,7 +1910,7 @@
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="12">
         <v>10</v>
       </c>
       <c r="K14">
@@ -1958,8 +1958,8 @@
       <c r="I15" s="12">
         <v>0</v>
       </c>
-      <c r="J15">
-        <v>1</v>
+      <c r="J15" s="12">
+        <v>10</v>
       </c>
       <c r="K15" s="11">
         <v>0</v>
@@ -2006,8 +2006,8 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16">
-        <v>2</v>
+      <c r="J16" s="12">
+        <v>10</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -2054,8 +2054,8 @@
       <c r="I17" s="12">
         <v>0</v>
       </c>
-      <c r="J17">
-        <v>3</v>
+      <c r="J17" s="12">
+        <v>10</v>
       </c>
       <c r="K17" s="11">
         <v>0</v>
@@ -2102,8 +2102,8 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18">
-        <v>4</v>
+      <c r="J18" s="12">
+        <v>10</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2150,8 +2150,8 @@
       <c r="I19" s="12">
         <v>0</v>
       </c>
-      <c r="J19">
-        <v>5</v>
+      <c r="J19" s="12">
+        <v>10</v>
       </c>
       <c r="K19" s="11">
         <v>0</v>
@@ -2198,8 +2198,8 @@
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20">
-        <v>6</v>
+      <c r="J20" s="12">
+        <v>10</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2246,8 +2246,8 @@
       <c r="I21" s="12">
         <v>0</v>
       </c>
-      <c r="J21">
-        <v>7</v>
+      <c r="J21" s="12">
+        <v>10</v>
       </c>
       <c r="K21" s="11">
         <v>0</v>
@@ -2294,8 +2294,8 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22">
-        <v>8</v>
+      <c r="J22" s="12">
+        <v>10</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2342,8 +2342,8 @@
       <c r="I23" s="12">
         <v>0</v>
       </c>
-      <c r="J23">
-        <v>9</v>
+      <c r="J23" s="12">
+        <v>10</v>
       </c>
       <c r="K23" s="11">
         <v>0</v>
@@ -2390,7 +2390,7 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="12">
         <v>10</v>
       </c>
       <c r="K24">
@@ -2438,8 +2438,8 @@
       <c r="I25" s="12">
         <v>0</v>
       </c>
-      <c r="J25">
-        <v>1</v>
+      <c r="J25" s="12">
+        <v>10</v>
       </c>
       <c r="K25" s="11">
         <v>0</v>
@@ -2486,8 +2486,8 @@
       <c r="I26">
         <v>0</v>
       </c>
-      <c r="J26">
-        <v>2</v>
+      <c r="J26" s="12">
+        <v>10</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2534,8 +2534,8 @@
       <c r="I27" s="12">
         <v>0</v>
       </c>
-      <c r="J27">
-        <v>3</v>
+      <c r="J27" s="12">
+        <v>10</v>
       </c>
       <c r="K27" s="11">
         <v>0</v>
@@ -2582,8 +2582,8 @@
       <c r="I28">
         <v>0</v>
       </c>
-      <c r="J28">
-        <v>4</v>
+      <c r="J28" s="12">
+        <v>10</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2630,8 +2630,8 @@
       <c r="I29" s="12">
         <v>0</v>
       </c>
-      <c r="J29">
-        <v>5</v>
+      <c r="J29" s="12">
+        <v>10</v>
       </c>
       <c r="K29" s="11">
         <v>0</v>
@@ -2677,8 +2677,8 @@
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="J30">
-        <v>6</v>
+      <c r="J30" s="12">
+        <v>10</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2724,8 +2724,8 @@
       <c r="I31" s="12">
         <v>0</v>
       </c>
-      <c r="J31">
-        <v>7</v>
+      <c r="J31" s="12">
+        <v>10</v>
       </c>
       <c r="K31" s="11">
         <v>0</v>
@@ -2771,8 +2771,8 @@
       <c r="I32">
         <v>0</v>
       </c>
-      <c r="J32">
-        <v>8</v>
+      <c r="J32" s="12">
+        <v>10</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2818,8 +2818,8 @@
       <c r="I33" s="12">
         <v>0</v>
       </c>
-      <c r="J33">
-        <v>9</v>
+      <c r="J33" s="12">
+        <v>10</v>
       </c>
       <c r="K33" s="11">
         <v>0</v>
@@ -2865,7 +2865,7 @@
       <c r="I34">
         <v>0</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="12">
         <v>10</v>
       </c>
       <c r="K34">
@@ -2912,8 +2912,8 @@
       <c r="I35" s="12">
         <v>0</v>
       </c>
-      <c r="J35">
-        <v>1</v>
+      <c r="J35" s="12">
+        <v>10</v>
       </c>
       <c r="K35">
         <v>70</v>
@@ -2959,8 +2959,8 @@
       <c r="I36">
         <v>0</v>
       </c>
-      <c r="J36">
-        <v>2</v>
+      <c r="J36" s="12">
+        <v>10</v>
       </c>
       <c r="K36">
         <v>90</v>
@@ -3006,8 +3006,8 @@
       <c r="I37" s="12">
         <v>0</v>
       </c>
-      <c r="J37">
-        <v>3</v>
+      <c r="J37" s="12">
+        <v>10</v>
       </c>
       <c r="K37">
         <v>110</v>
@@ -3053,8 +3053,8 @@
       <c r="I38">
         <v>0</v>
       </c>
-      <c r="J38">
-        <v>4</v>
+      <c r="J38" s="12">
+        <v>10</v>
       </c>
       <c r="K38">
         <v>130</v>
@@ -3100,8 +3100,8 @@
       <c r="I39" s="12">
         <v>0</v>
       </c>
-      <c r="J39">
-        <v>5</v>
+      <c r="J39" s="12">
+        <v>10</v>
       </c>
       <c r="K39">
         <v>150</v>
@@ -3147,8 +3147,8 @@
       <c r="I40">
         <v>0</v>
       </c>
-      <c r="J40">
-        <v>6</v>
+      <c r="J40" s="12">
+        <v>10</v>
       </c>
       <c r="K40">
         <v>170</v>
@@ -3194,8 +3194,8 @@
       <c r="I41" s="12">
         <v>0</v>
       </c>
-      <c r="J41">
-        <v>7</v>
+      <c r="J41" s="12">
+        <v>10</v>
       </c>
       <c r="K41">
         <v>190</v>
@@ -3241,8 +3241,8 @@
       <c r="I42">
         <v>0</v>
       </c>
-      <c r="J42">
-        <v>8</v>
+      <c r="J42" s="12">
+        <v>10</v>
       </c>
       <c r="K42">
         <v>210</v>
@@ -3288,8 +3288,8 @@
       <c r="I43" s="12">
         <v>0</v>
       </c>
-      <c r="J43">
-        <v>9</v>
+      <c r="J43" s="12">
+        <v>10</v>
       </c>
       <c r="K43">
         <v>230</v>
@@ -3335,7 +3335,7 @@
       <c r="I44">
         <v>0</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="12">
         <v>10</v>
       </c>
       <c r="K44" s="11">
@@ -3382,8 +3382,8 @@
       <c r="I45">
         <v>5</v>
       </c>
-      <c r="J45">
-        <v>1</v>
+      <c r="J45" s="12">
+        <v>10</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -3429,8 +3429,8 @@
       <c r="I46">
         <v>10</v>
       </c>
-      <c r="J46">
-        <v>2</v>
+      <c r="J46" s="12">
+        <v>10</v>
       </c>
       <c r="K46" s="11">
         <v>0</v>
@@ -3476,8 +3476,8 @@
       <c r="I47">
         <v>15</v>
       </c>
-      <c r="J47">
-        <v>3</v>
+      <c r="J47" s="12">
+        <v>10</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -3523,8 +3523,8 @@
       <c r="I48">
         <v>20</v>
       </c>
-      <c r="J48">
-        <v>4</v>
+      <c r="J48" s="12">
+        <v>10</v>
       </c>
       <c r="K48" s="11">
         <v>0</v>
@@ -3570,8 +3570,8 @@
       <c r="I49">
         <v>25</v>
       </c>
-      <c r="J49">
-        <v>5</v>
+      <c r="J49" s="12">
+        <v>10</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -3617,8 +3617,8 @@
       <c r="I50">
         <v>30</v>
       </c>
-      <c r="J50">
-        <v>6</v>
+      <c r="J50" s="12">
+        <v>10</v>
       </c>
       <c r="K50" s="11">
         <v>0</v>
@@ -3664,8 +3664,8 @@
       <c r="I51">
         <v>35</v>
       </c>
-      <c r="J51">
-        <v>7</v>
+      <c r="J51" s="12">
+        <v>10</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -3711,8 +3711,8 @@
       <c r="I52">
         <v>40</v>
       </c>
-      <c r="J52">
-        <v>8</v>
+      <c r="J52" s="12">
+        <v>10</v>
       </c>
       <c r="K52" s="11">
         <v>0</v>
@@ -3758,8 +3758,8 @@
       <c r="I53">
         <v>45</v>
       </c>
-      <c r="J53">
-        <v>9</v>
+      <c r="J53" s="12">
+        <v>10</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -3805,7 +3805,7 @@
       <c r="I54">
         <v>50</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="12">
         <v>10</v>
       </c>
       <c r="K54" s="11">

--- a/docs/excel/TCarPart.xlsx
+++ b/docs/excel/TCarPart.xlsx
@@ -226,10 +226,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -244,7 +244,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,60 +257,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,34 +280,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -372,6 +304,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -386,11 +347,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -409,7 +409,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,7 +529,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,103 +571,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,43 +589,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,32 +600,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -644,21 +618,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -670,6 +629,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,12 +668,38 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -708,10 +708,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -720,133 +720,133 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1271,8 +1271,8 @@
   <sheetPr/>
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J54"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1459,7 +1459,9 @@
       <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
       <c r="D5">
         <v>0</v>
       </c>
@@ -1507,7 +1509,9 @@
       <c r="B6" s="10">
         <v>1</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
       <c r="D6">
         <v>0</v>
       </c>
@@ -1555,7 +1559,9 @@
       <c r="B7" s="10">
         <v>1</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10">
+        <v>2</v>
+      </c>
       <c r="D7">
         <v>0</v>
       </c>
@@ -1603,7 +1609,9 @@
       <c r="B8" s="10">
         <v>1</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10">
+        <v>2</v>
+      </c>
       <c r="D8">
         <v>0</v>
       </c>
@@ -1651,7 +1659,9 @@
       <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="10">
+        <v>3</v>
+      </c>
       <c r="D9">
         <v>0</v>
       </c>
@@ -1699,7 +1709,9 @@
       <c r="B10" s="10">
         <v>1</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="10">
+        <v>3</v>
+      </c>
       <c r="D10">
         <v>0</v>
       </c>
@@ -1747,7 +1759,9 @@
       <c r="B11" s="10">
         <v>1</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="10">
+        <v>4</v>
+      </c>
       <c r="D11">
         <v>0</v>
       </c>
@@ -1795,7 +1809,9 @@
       <c r="B12" s="10">
         <v>1</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="10">
+        <v>4</v>
+      </c>
       <c r="D12">
         <v>0</v>
       </c>
@@ -1843,7 +1859,9 @@
       <c r="B13" s="10">
         <v>1</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="10">
+        <v>5</v>
+      </c>
       <c r="D13">
         <v>0</v>
       </c>
@@ -1891,7 +1909,9 @@
       <c r="B14" s="10">
         <v>1</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="10">
+        <v>5</v>
+      </c>
       <c r="D14">
         <v>0</v>
       </c>
@@ -1939,7 +1959,9 @@
       <c r="B15" s="10">
         <v>2</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="10">
+        <v>1</v>
+      </c>
       <c r="D15">
         <v>0</v>
       </c>
@@ -1987,7 +2009,9 @@
       <c r="B16" s="10">
         <v>2</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="10">
+        <v>1</v>
+      </c>
       <c r="D16">
         <v>0</v>
       </c>
@@ -2035,7 +2059,9 @@
       <c r="B17" s="10">
         <v>2</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="10">
+        <v>2</v>
+      </c>
       <c r="D17">
         <v>0</v>
       </c>
@@ -2083,7 +2109,9 @@
       <c r="B18" s="10">
         <v>2</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="10">
+        <v>2</v>
+      </c>
       <c r="D18">
         <v>0</v>
       </c>
@@ -2131,7 +2159,9 @@
       <c r="B19" s="10">
         <v>2</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="10">
+        <v>3</v>
+      </c>
       <c r="D19">
         <v>0</v>
       </c>
@@ -2179,7 +2209,9 @@
       <c r="B20" s="10">
         <v>2</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="10">
+        <v>3</v>
+      </c>
       <c r="D20">
         <v>0</v>
       </c>
@@ -2227,7 +2259,9 @@
       <c r="B21" s="10">
         <v>2</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="10">
+        <v>4</v>
+      </c>
       <c r="D21">
         <v>0</v>
       </c>
@@ -2275,7 +2309,9 @@
       <c r="B22" s="10">
         <v>2</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="10">
+        <v>4</v>
+      </c>
       <c r="D22">
         <v>0</v>
       </c>
@@ -2323,7 +2359,9 @@
       <c r="B23" s="10">
         <v>2</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="10">
+        <v>5</v>
+      </c>
       <c r="D23">
         <v>0</v>
       </c>
@@ -2371,7 +2409,9 @@
       <c r="B24" s="10">
         <v>2</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="10">
+        <v>5</v>
+      </c>
       <c r="D24">
         <v>0</v>
       </c>
@@ -2419,7 +2459,9 @@
       <c r="B25" s="10">
         <v>3</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" s="10">
+        <v>1</v>
+      </c>
       <c r="D25">
         <v>0</v>
       </c>
@@ -2467,7 +2509,9 @@
       <c r="B26" s="10">
         <v>3</v>
       </c>
-      <c r="C26" s="10"/>
+      <c r="C26" s="10">
+        <v>1</v>
+      </c>
       <c r="D26">
         <v>0</v>
       </c>
@@ -2515,7 +2559,9 @@
       <c r="B27" s="10">
         <v>3</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="10">
+        <v>2</v>
+      </c>
       <c r="D27">
         <v>0</v>
       </c>
@@ -2563,7 +2609,9 @@
       <c r="B28" s="10">
         <v>3</v>
       </c>
-      <c r="C28" s="10"/>
+      <c r="C28" s="10">
+        <v>2</v>
+      </c>
       <c r="D28">
         <v>0</v>
       </c>
@@ -2611,7 +2659,9 @@
       <c r="B29" s="10">
         <v>3</v>
       </c>
-      <c r="C29" s="10"/>
+      <c r="C29" s="10">
+        <v>3</v>
+      </c>
       <c r="D29">
         <v>0</v>
       </c>
@@ -2659,6 +2709,9 @@
       <c r="B30" s="10">
         <v>3</v>
       </c>
+      <c r="C30" s="10">
+        <v>3</v>
+      </c>
       <c r="D30">
         <v>0</v>
       </c>
@@ -2706,6 +2759,9 @@
       <c r="B31" s="10">
         <v>3</v>
       </c>
+      <c r="C31" s="10">
+        <v>4</v>
+      </c>
       <c r="D31">
         <v>0</v>
       </c>
@@ -2753,6 +2809,9 @@
       <c r="B32" s="10">
         <v>3</v>
       </c>
+      <c r="C32" s="10">
+        <v>4</v>
+      </c>
       <c r="D32">
         <v>0</v>
       </c>
@@ -2800,6 +2859,9 @@
       <c r="B33" s="10">
         <v>3</v>
       </c>
+      <c r="C33" s="10">
+        <v>5</v>
+      </c>
       <c r="D33">
         <v>0</v>
       </c>
@@ -2847,6 +2909,9 @@
       <c r="B34" s="10">
         <v>3</v>
       </c>
+      <c r="C34" s="10">
+        <v>5</v>
+      </c>
       <c r="D34">
         <v>0</v>
       </c>
@@ -2894,6 +2959,9 @@
       <c r="B35" s="4">
         <v>4</v>
       </c>
+      <c r="C35" s="10">
+        <v>1</v>
+      </c>
       <c r="D35" s="4">
         <v>50</v>
       </c>
@@ -2941,6 +3009,9 @@
       <c r="B36" s="4">
         <v>4</v>
       </c>
+      <c r="C36" s="10">
+        <v>1</v>
+      </c>
       <c r="D36" s="4">
         <v>70</v>
       </c>
@@ -2988,6 +3059,9 @@
       <c r="B37" s="4">
         <v>4</v>
       </c>
+      <c r="C37" s="10">
+        <v>2</v>
+      </c>
       <c r="D37" s="4">
         <v>90</v>
       </c>
@@ -3035,6 +3109,9 @@
       <c r="B38" s="4">
         <v>4</v>
       </c>
+      <c r="C38" s="10">
+        <v>2</v>
+      </c>
       <c r="D38" s="4">
         <v>110</v>
       </c>
@@ -3082,6 +3159,9 @@
       <c r="B39" s="4">
         <v>4</v>
       </c>
+      <c r="C39" s="10">
+        <v>3</v>
+      </c>
       <c r="D39" s="4">
         <v>130</v>
       </c>
@@ -3129,6 +3209,9 @@
       <c r="B40" s="4">
         <v>4</v>
       </c>
+      <c r="C40" s="10">
+        <v>3</v>
+      </c>
       <c r="D40" s="4">
         <v>150</v>
       </c>
@@ -3176,6 +3259,9 @@
       <c r="B41" s="4">
         <v>4</v>
       </c>
+      <c r="C41" s="10">
+        <v>4</v>
+      </c>
       <c r="D41" s="4">
         <v>170</v>
       </c>
@@ -3223,6 +3309,9 @@
       <c r="B42" s="4">
         <v>4</v>
       </c>
+      <c r="C42" s="10">
+        <v>4</v>
+      </c>
       <c r="D42" s="4">
         <v>190</v>
       </c>
@@ -3270,6 +3359,9 @@
       <c r="B43" s="4">
         <v>4</v>
       </c>
+      <c r="C43" s="10">
+        <v>5</v>
+      </c>
       <c r="D43" s="4">
         <v>210</v>
       </c>
@@ -3317,6 +3409,9 @@
       <c r="B44" s="4">
         <v>4</v>
       </c>
+      <c r="C44" s="10">
+        <v>5</v>
+      </c>
       <c r="D44" s="4">
         <v>0</v>
       </c>
@@ -3364,6 +3459,9 @@
       <c r="B45" s="10">
         <v>5</v>
       </c>
+      <c r="C45" s="10">
+        <v>1</v>
+      </c>
       <c r="D45" s="4">
         <v>0</v>
       </c>
@@ -3411,6 +3509,9 @@
       <c r="B46" s="10">
         <v>5</v>
       </c>
+      <c r="C46" s="10">
+        <v>1</v>
+      </c>
       <c r="D46" s="4">
         <v>0</v>
       </c>
@@ -3458,6 +3559,9 @@
       <c r="B47" s="10">
         <v>5</v>
       </c>
+      <c r="C47" s="10">
+        <v>2</v>
+      </c>
       <c r="D47" s="4">
         <v>0</v>
       </c>
@@ -3505,6 +3609,9 @@
       <c r="B48" s="10">
         <v>5</v>
       </c>
+      <c r="C48" s="10">
+        <v>2</v>
+      </c>
       <c r="D48" s="4">
         <v>0</v>
       </c>
@@ -3552,6 +3659,9 @@
       <c r="B49" s="10">
         <v>5</v>
       </c>
+      <c r="C49" s="10">
+        <v>3</v>
+      </c>
       <c r="D49" s="4">
         <v>0</v>
       </c>
@@ -3599,6 +3709,9 @@
       <c r="B50" s="10">
         <v>5</v>
       </c>
+      <c r="C50" s="10">
+        <v>3</v>
+      </c>
       <c r="D50" s="4">
         <v>0</v>
       </c>
@@ -3646,6 +3759,9 @@
       <c r="B51" s="10">
         <v>5</v>
       </c>
+      <c r="C51" s="10">
+        <v>4</v>
+      </c>
       <c r="D51" s="4">
         <v>0</v>
       </c>
@@ -3693,6 +3809,9 @@
       <c r="B52" s="10">
         <v>5</v>
       </c>
+      <c r="C52" s="10">
+        <v>4</v>
+      </c>
       <c r="D52" s="4">
         <v>0</v>
       </c>
@@ -3740,6 +3859,9 @@
       <c r="B53" s="10">
         <v>5</v>
       </c>
+      <c r="C53" s="10">
+        <v>5</v>
+      </c>
       <c r="D53" s="4">
         <v>0</v>
       </c>
@@ -3785,6 +3907,9 @@
         <v>5010</v>
       </c>
       <c r="B54" s="10">
+        <v>5</v>
+      </c>
+      <c r="C54" s="10">
         <v>5</v>
       </c>
       <c r="D54" s="4">
